--- a/Asylum Seeking/European - Asylum Seekers_Harwinder/Final immigration EU.xlsx
+++ b/Asylum Seeking/European - Asylum Seekers_Harwinder/Final immigration EU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harwi\Documents\UNO Classes\Sem 4\Data Visualization\Immigration Proj\European - Asylum Seekers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7235D7-5E0A-4BCE-900A-6553022507DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF08F50E-23F1-47B5-98C1-D41178681EF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{516AE7BB-C993-4674-A32E-82EF3BFA89A2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{516AE7BB-C993-4674-A32E-82EF3BFA89A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,17 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="119">
   <si>
     <t>First time applicant (²)</t>
   </si>
   <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Syria</t>
   </si>
   <si>
@@ -276,12 +270,6 @@
     <t>Rejected</t>
   </si>
   <si>
-    <t>Asylum Seekers-2017</t>
-  </si>
-  <si>
-    <t>Asylum Seekers-2018</t>
-  </si>
-  <si>
     <t>Asylum Seekers Taken-2017</t>
   </si>
   <si>
@@ -394,6 +382,15 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>Total Asylum Seekers</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Asylum Seekers</t>
   </si>
 </sst>
 </file>
@@ -404,7 +401,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,6 +435,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -466,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -510,6 +513,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -826,129 +832,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE1C275-D68F-477D-BB77-047BE5B7EB86}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3">
+        <v>117</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="16">
         <v>2008</v>
       </c>
-      <c r="C1" s="3">
+      <c r="B2" s="1">
+        <v>152.88999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>225.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="16">
         <v>2009</v>
       </c>
-      <c r="D1" s="3">
+      <c r="B3" s="1">
+        <v>195.84</v>
+      </c>
+      <c r="C3" s="1">
+        <v>263.83499999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="16">
         <v>2010</v>
       </c>
-      <c r="E1" s="3">
+      <c r="B4" s="1">
+        <v>206.88</v>
+      </c>
+      <c r="C4" s="1">
+        <v>259.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="16">
         <v>2011</v>
       </c>
-      <c r="F1" s="3">
+      <c r="B5" s="1">
+        <v>263.13499999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>309.04000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="16">
         <v>2012</v>
       </c>
-      <c r="G1" s="3">
+      <c r="B6" s="1">
+        <v>278.27999999999997</v>
+      </c>
+      <c r="C6" s="1">
+        <v>335.29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="16">
         <v>2013</v>
       </c>
-      <c r="H1" s="3">
+      <c r="B7" s="1">
+        <v>367.82499999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>431.09500000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="16">
         <v>2014</v>
       </c>
-      <c r="I1" s="3">
+      <c r="B8" s="1">
+        <v>562.67999999999995</v>
+      </c>
+      <c r="C8" s="1">
+        <v>626.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="16">
         <v>2015</v>
       </c>
-      <c r="J1" s="3">
+      <c r="B9" s="1">
+        <v>1256.6099999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1322.845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="16">
         <v>2016</v>
       </c>
-      <c r="K1" s="3">
+      <c r="B10" s="1">
+        <v>1206.0450000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1260.9100000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="16">
         <v>2017</v>
       </c>
-      <c r="L1" s="3">
+      <c r="B11" s="1">
+        <v>654.61</v>
+      </c>
+      <c r="C11" s="1">
+        <v>712.23500000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="16">
         <v>2018</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>225.15</v>
-      </c>
-      <c r="C2" s="1">
-        <v>263.83499999999998</v>
-      </c>
-      <c r="D2" s="1">
-        <v>259.63</v>
-      </c>
-      <c r="E2" s="1">
-        <v>309.04000000000002</v>
-      </c>
-      <c r="F2" s="1">
-        <v>335.29</v>
-      </c>
-      <c r="G2" s="1">
-        <v>431.09500000000003</v>
-      </c>
-      <c r="H2" s="1">
-        <v>626.96</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1322.845</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1260.9100000000001</v>
-      </c>
-      <c r="K2" s="1">
-        <v>712.23500000000001</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="B12" s="2">
+        <v>580.84500000000003</v>
+      </c>
+      <c r="C12" s="2">
         <v>638.24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>152.88999999999999</v>
-      </c>
-      <c r="C3" s="1">
-        <v>195.84</v>
-      </c>
-      <c r="D3" s="1">
-        <v>206.88</v>
-      </c>
-      <c r="E3" s="1">
-        <v>263.13499999999999</v>
-      </c>
-      <c r="F3" s="1">
-        <v>278.27999999999997</v>
-      </c>
-      <c r="G3" s="1">
-        <v>367.82499999999999</v>
-      </c>
-      <c r="H3" s="1">
-        <v>562.67999999999995</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1256.6099999999999</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1206.0450000000001</v>
-      </c>
-      <c r="K3" s="1">
-        <v>654.61</v>
-      </c>
-      <c r="L3" s="2">
-        <v>580.84500000000003</v>
       </c>
     </row>
   </sheetData>
@@ -959,10 +985,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD8A826-F272-4F32-A7CF-4B267BD0C185}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -973,354 +999,695 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6">
         <v>102.375</v>
       </c>
-      <c r="C2" s="6">
-        <v>80.92</v>
+      <c r="C2">
+        <v>2017</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6">
         <v>43.8</v>
       </c>
-      <c r="C3" s="6">
-        <v>40.99</v>
+      <c r="C3">
+        <v>2017</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6">
         <v>47.65</v>
       </c>
-      <c r="C4" s="6">
-        <v>39.594999999999999</v>
+      <c r="C4">
+        <v>2017</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6">
         <v>29.67</v>
       </c>
-      <c r="C5" s="6">
-        <v>24.704999999999998</v>
+      <c r="C5">
+        <v>2017</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6">
         <v>17.324999999999999</v>
       </c>
-      <c r="C6" s="6">
-        <v>23.195</v>
+      <c r="C6">
+        <v>2017</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6">
         <v>39.185000000000002</v>
       </c>
-      <c r="C7" s="6">
-        <v>22.12</v>
+      <c r="C7">
+        <v>2017</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6">
         <v>14.654999999999999</v>
       </c>
-      <c r="C8" s="6">
-        <v>21.965</v>
+      <c r="C8">
+        <v>2017</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6">
         <v>13.01</v>
       </c>
-      <c r="C9" s="6">
-        <v>21.92</v>
+      <c r="C9">
+        <v>2017</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6">
         <v>22.27</v>
       </c>
-      <c r="C10" s="6">
-        <v>19.024999999999999</v>
+      <c r="C10">
+        <v>2017</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6">
         <v>9.99</v>
       </c>
-      <c r="C11" s="6">
-        <v>17.98</v>
+      <c r="C11">
+        <v>2017</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6">
         <v>24.375</v>
       </c>
-      <c r="C12" s="6">
-        <v>14.945</v>
+      <c r="C12">
+        <v>2017</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6">
         <v>17.765000000000001</v>
       </c>
-      <c r="C13" s="6">
-        <v>13.295</v>
+      <c r="C13">
+        <v>2017</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6">
         <v>19.335000000000001</v>
       </c>
-      <c r="C14" s="6">
-        <v>12.65</v>
+      <c r="C14">
+        <v>2017</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6">
         <v>12.705</v>
       </c>
-      <c r="C15" s="6">
-        <v>11.65</v>
+      <c r="C15">
+        <v>2017</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6">
         <v>12.744999999999999</v>
       </c>
-      <c r="C16" s="6">
-        <v>11.305</v>
+      <c r="C16">
+        <v>2017</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6">
         <v>3.9449999999999998</v>
       </c>
-      <c r="C17" s="6">
-        <v>9.9700000000000006</v>
+      <c r="C17">
+        <v>2017</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6">
         <v>9.24</v>
       </c>
-      <c r="C18" s="6">
-        <v>9.1850000000000005</v>
+      <c r="C18">
+        <v>2017</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6">
         <v>8.9550000000000001</v>
       </c>
-      <c r="C19" s="6">
-        <v>8.49</v>
+      <c r="C19">
+        <v>2017</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6">
         <v>14.025</v>
       </c>
-      <c r="C20" s="6">
-        <v>8.4450000000000003</v>
+      <c r="C20">
+        <v>2017</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6">
         <v>9.2050000000000001</v>
       </c>
-      <c r="C21" s="6">
-        <v>8.1850000000000005</v>
+      <c r="C21">
+        <v>2017</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6">
         <v>7.82</v>
       </c>
-      <c r="C22" s="6">
-        <v>7.51</v>
+      <c r="C22">
+        <v>2017</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="6">
         <v>4.54</v>
       </c>
-      <c r="C23" s="6">
-        <v>7.1749999999999998</v>
+      <c r="C23">
+        <v>2017</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6">
         <v>6.7549999999999999</v>
       </c>
-      <c r="C24" s="6">
-        <v>6.7750000000000004</v>
+      <c r="C24">
+        <v>2017</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6">
         <v>10.32</v>
       </c>
-      <c r="C25" s="6">
-        <v>6.23</v>
+      <c r="C25">
+        <v>2017</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6">
         <v>4.87</v>
       </c>
-      <c r="C26" s="6">
-        <v>5.7450000000000001</v>
+      <c r="C26">
+        <v>2017</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6">
         <v>4.9800000000000004</v>
       </c>
-      <c r="C27" s="6">
-        <v>5.28</v>
+      <c r="C27">
+        <v>2017</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6">
         <v>10.25</v>
       </c>
-      <c r="C28" s="6">
-        <v>5.2649999999999997</v>
+      <c r="C28">
+        <v>2017</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6">
         <v>5.81</v>
       </c>
-      <c r="C29" s="6">
-        <v>5.0999999999999996</v>
+      <c r="C29">
+        <v>2017</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6">
         <v>6.8049999999999997</v>
       </c>
-      <c r="C30" s="6">
-        <v>4.7750000000000004</v>
+      <c r="C30">
+        <v>2017</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6">
         <v>3.04</v>
       </c>
-      <c r="C31" s="6">
-        <v>4.67</v>
+      <c r="C31">
+        <v>2017</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="6">
         <v>117.19500000000001</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="6">
+        <v>80.92</v>
+      </c>
+      <c r="C33">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="6">
+        <v>40.99</v>
+      </c>
+      <c r="C34">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="6">
+        <v>39.594999999999999</v>
+      </c>
+      <c r="C35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="6">
+        <v>24.704999999999998</v>
+      </c>
+      <c r="C36">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="6">
+        <v>23.195</v>
+      </c>
+      <c r="C37">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="6">
+        <v>22.12</v>
+      </c>
+      <c r="C38">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="6">
+        <v>21.965</v>
+      </c>
+      <c r="C39">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="6">
+        <v>21.92</v>
+      </c>
+      <c r="C40">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="6">
+        <v>19.024999999999999</v>
+      </c>
+      <c r="C41">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="6">
+        <v>17.98</v>
+      </c>
+      <c r="C42">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="6">
+        <v>14.945</v>
+      </c>
+      <c r="C43">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="6">
+        <v>13.295</v>
+      </c>
+      <c r="C44">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="6">
+        <v>12.65</v>
+      </c>
+      <c r="C45">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="6">
+        <v>11.65</v>
+      </c>
+      <c r="C46">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="6">
+        <v>11.305</v>
+      </c>
+      <c r="C47">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="6">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="C48">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="6">
+        <v>9.1850000000000005</v>
+      </c>
+      <c r="C49">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="6">
+        <v>8.49</v>
+      </c>
+      <c r="C50">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="6">
+        <v>8.4450000000000003</v>
+      </c>
+      <c r="C51">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="6">
+        <v>8.1850000000000005</v>
+      </c>
+      <c r="C52">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="6">
+        <v>7.51</v>
+      </c>
+      <c r="C53">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="6">
+        <v>7.1749999999999998</v>
+      </c>
+      <c r="C54">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="6">
+        <v>6.7750000000000004</v>
+      </c>
+      <c r="C55">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="6">
+        <v>6.23</v>
+      </c>
+      <c r="C56">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="6">
+        <v>5.7450000000000001</v>
+      </c>
+      <c r="C57">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="6">
+        <v>5.28</v>
+      </c>
+      <c r="C58">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="6">
+        <v>5.2649999999999997</v>
+      </c>
+      <c r="C59">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C60">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" s="6">
+        <v>4.7750000000000004</v>
+      </c>
+      <c r="C61">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="6">
+        <v>4.67</v>
+      </c>
+      <c r="C62">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="6">
         <v>101.785</v>
+      </c>
+      <c r="C63">
+        <v>2018</v>
       </c>
     </row>
   </sheetData>
@@ -1332,8 +1699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047D82A1-D2EA-4FAA-BC61-4C66A4FCE0C6}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1345,63 +1712,63 @@
   <sheetData>
     <row r="1" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="O1" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="6">
         <v>22.454999999999998</v>
@@ -1443,10 +1810,10 @@
         <v>56.486979694696295</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q2">
         <v>47.516230999999998</v>
@@ -1457,7 +1824,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="6">
         <v>14.035</v>
@@ -1499,10 +1866,10 @@
         <v>49.116626353980443</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q3">
         <v>50.503886999999999</v>
@@ -1513,7 +1880,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="6">
         <v>3.47</v>
@@ -1555,10 +1922,10 @@
         <v>64.990512333965839</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q4">
         <v>42.733882999999999</v>
@@ -1569,7 +1936,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="6">
         <v>0.88</v>
@@ -1611,10 +1978,10 @@
         <v>69.124423963133637</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="14">
         <v>45.1</v>
@@ -1625,7 +1992,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="6">
         <v>4.4749999999999996</v>
@@ -1667,10 +2034,10 @@
         <v>50.98909971740008</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q6">
         <v>35.126412999999999</v>
@@ -1681,7 +2048,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="6">
         <v>1.1399999999999999</v>
@@ -1723,10 +2090,10 @@
         <v>88.728323699421964</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q7">
         <v>49.817500000000003</v>
@@ -1737,7 +2104,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="6">
         <v>3.125</v>
@@ -1779,10 +2146,10 @@
         <v>50</v>
       </c>
       <c r="O8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q8">
         <v>56.263919999999999</v>
@@ -1793,7 +2160,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" s="6">
         <v>0.18</v>
@@ -1835,10 +2202,10 @@
         <v>75</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q9">
         <v>58.595272000000001</v>
@@ -1849,7 +2216,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="6">
         <v>4.3250000000000002</v>
@@ -1891,10 +2258,10 @@
         <v>45.878378378378379</v>
       </c>
       <c r="O10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q10">
         <v>61.924109999999999</v>
@@ -1905,7 +2272,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="6">
         <v>91.965000000000003</v>
@@ -1947,10 +2314,10 @@
         <v>71.226239284383155</v>
       </c>
       <c r="O11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q11">
         <v>46.227637999999999</v>
@@ -1961,7 +2328,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" s="6">
         <v>198.255</v>
@@ -2003,10 +2370,10 @@
         <v>57.603064004645141</v>
       </c>
       <c r="O12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q12">
         <v>51.165700000000001</v>
@@ -2017,7 +2384,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="6">
         <v>56.94</v>
@@ -2059,10 +2426,10 @@
         <v>52.962275819418679</v>
       </c>
       <c r="O13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q13">
         <v>39.074207999999999</v>
@@ -2073,7 +2440,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" s="6">
         <v>3.1150000000000002</v>
@@ -2115,10 +2482,10 @@
         <v>61.691022964509386</v>
       </c>
       <c r="O14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q14">
         <v>47.162494000000002</v>
@@ -2129,7 +2496,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="6">
         <v>1.0649999999999999</v>
@@ -2171,10 +2538,10 @@
         <v>72.29551451187335</v>
       </c>
       <c r="O15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q15">
         <v>64.963050999999993</v>
@@ -2185,7 +2552,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="6">
         <v>2.91</v>
@@ -2227,10 +2594,10 @@
         <v>14.528462192013594</v>
       </c>
       <c r="O16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q16">
         <v>53.412909999999997</v>
@@ -2241,7 +2608,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" s="6">
         <v>126.55</v>
@@ -2283,10 +2650,10 @@
         <v>67.789097783846231</v>
       </c>
       <c r="O17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q17">
         <v>41.871940000000002</v>
@@ -2297,7 +2664,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18" s="6">
         <v>0.35499999999999998</v>
@@ -2339,10 +2706,10 @@
         <v>76</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q18">
         <v>56.879635</v>
@@ -2353,7 +2720,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" s="6">
         <v>0.14499999999999999</v>
@@ -2395,10 +2762,10 @@
         <v>77.5</v>
       </c>
       <c r="O19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P19" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q19">
         <v>47.165999999999997</v>
@@ -2409,7 +2776,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B20" s="6">
         <v>0.52</v>
@@ -2451,10 +2818,10 @@
         <v>50</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q20">
         <v>55.169438</v>
@@ -2465,7 +2832,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" s="6">
         <v>2.3199999999999998</v>
@@ -2507,10 +2874,10 @@
         <v>28.097982708933717</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q21">
         <v>49.815272999999998</v>
@@ -2521,7 +2888,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" s="6">
         <v>1.61</v>
@@ -2563,10 +2930,10 @@
         <v>56.895403064623586</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Q22">
         <v>35.937496000000003</v>
@@ -2577,7 +2944,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" s="6">
         <v>16.09</v>
@@ -2619,10 +2986,10 @@
         <v>64.799688837028384</v>
       </c>
       <c r="O23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q23">
         <v>52.132632999999998</v>
@@ -2633,7 +3000,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B24" s="6">
         <v>3.35</v>
@@ -2675,10 +3042,10 @@
         <v>31.016548463356976</v>
       </c>
       <c r="O24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q24">
         <v>60.472023999999998</v>
@@ -2689,7 +3056,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" s="6">
         <v>3.0049999999999999</v>
@@ -2731,10 +3098,10 @@
         <v>86.298867373036174</v>
       </c>
       <c r="O25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q25">
         <v>51.919438</v>
@@ -2745,7 +3112,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26" s="6">
         <v>1.0149999999999999</v>
@@ -2787,10 +3154,10 @@
         <v>39.94252873563218</v>
       </c>
       <c r="O26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="Q26">
         <v>39.399872000000002</v>
@@ -2801,7 +3168,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B27" s="6">
         <v>4.7</v>
@@ -2843,10 +3210,10 @@
         <v>53.970701619121051</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q27">
         <v>45.943161000000003</v>
@@ -2857,7 +3224,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28" s="6">
         <v>0.15</v>
@@ -2899,10 +3266,10 @@
         <v>47.560975609756099</v>
       </c>
       <c r="O28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q28">
         <v>48.669026000000002</v>
@@ -2913,7 +3280,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="6">
         <v>1.4350000000000001</v>
@@ -2955,10 +3322,10 @@
         <v>56.962025316455701</v>
       </c>
       <c r="O29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q29">
         <v>46.151240999999999</v>
@@ -2969,7 +3336,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" s="6">
         <v>33.034999999999997</v>
@@ -3011,10 +3378,10 @@
         <v>75.614685079151229</v>
       </c>
       <c r="O30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P30" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q30">
         <v>40.463667000000001</v>
@@ -3025,7 +3392,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31" s="6">
         <v>22.19</v>
@@ -3067,10 +3434,10 @@
         <v>66.027012356716369</v>
       </c>
       <c r="O31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P31" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Q31">
         <v>60.128160999999999</v>
@@ -3081,7 +3448,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B32" s="6">
         <v>16.614999999999998</v>
@@ -3123,10 +3490,10 @@
         <v>10.429411764705883</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P32" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q32">
         <v>46.818187999999999</v>
@@ -3137,7 +3504,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B33" s="6">
         <v>34.354999999999997</v>
@@ -3179,10 +3546,10 @@
         <v>65.009354861062988</v>
       </c>
       <c r="O33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P33" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Q33">
         <v>55.378050999999999</v>
@@ -3200,7 +3567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE2280A-9E7F-4E54-9C0C-2024B89266D7}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E32"/>
     </sheetView>
   </sheetViews>
@@ -3211,13 +3578,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D1">
         <v>47.516230999999998</v>
@@ -3228,13 +3595,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D2">
         <v>50.503886999999999</v>
@@ -3245,13 +3612,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3">
         <v>42.733882999999999</v>
@@ -3262,13 +3629,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D4" s="14">
         <v>45.1</v>
@@ -3279,13 +3646,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D5">
         <v>35.126412999999999</v>
@@ -3296,13 +3663,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D6">
         <v>49.817500000000003</v>
@@ -3313,13 +3680,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D7">
         <v>56.263919999999999</v>
@@ -3330,13 +3697,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D8">
         <v>58.595272000000001</v>
@@ -3347,13 +3714,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D9">
         <v>61.924109999999999</v>
@@ -3364,13 +3731,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D10">
         <v>46.227637999999999</v>
@@ -3381,13 +3748,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D11">
         <v>51.165700000000001</v>
@@ -3398,13 +3765,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D12">
         <v>39.074207999999999</v>
@@ -3415,13 +3782,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D13">
         <v>47.162494000000002</v>
@@ -3432,13 +3799,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D14">
         <v>64.963050999999993</v>
@@ -3449,13 +3816,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D15">
         <v>53.412909999999997</v>
@@ -3466,13 +3833,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D16">
         <v>41.871940000000002</v>
@@ -3483,13 +3850,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D17">
         <v>56.879635</v>
@@ -3500,13 +3867,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D18">
         <v>47.165999999999997</v>
@@ -3517,13 +3884,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D19">
         <v>55.169438</v>
@@ -3534,13 +3901,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D20">
         <v>49.815272999999998</v>
@@ -3551,13 +3918,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D21">
         <v>35.937496000000003</v>
@@ -3568,13 +3935,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D22">
         <v>52.132632999999998</v>
@@ -3585,13 +3952,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D23">
         <v>60.472023999999998</v>
@@ -3602,13 +3969,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D24">
         <v>51.919438</v>
@@ -3619,13 +3986,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D25">
         <v>39.399872000000002</v>
@@ -3636,13 +4003,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D26">
         <v>45.943161000000003</v>
@@ -3653,13 +4020,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D27">
         <v>48.669026000000002</v>
@@ -3670,13 +4037,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D28">
         <v>46.151240999999999</v>
@@ -3687,13 +4054,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D29">
         <v>40.463667000000001</v>
@@ -3704,13 +4071,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D30">
         <v>60.128160999999999</v>
@@ -3721,13 +4088,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D31">
         <v>46.818187999999999</v>
@@ -3738,13 +4105,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D32">
         <v>55.378050999999999</v>
